--- a/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,69</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-40,38%</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>-40,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-11,39%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-22,51%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,87</t>
+          <t>-1,44; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,25</t>
+          <t>-4,69; 0,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,5</t>
+          <t>-3,82; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,6</t>
+          <t>-4,32; 1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 108,99</t>
+          <t>-1,77; 3,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 17,14</t>
+          <t>-5,11; 1,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 70,85</t>
+          <t>-26,06; 101,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 65,43</t>
+          <t>-71,68; 15,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-49,5; 82,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-48,42; 40,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 66,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-47,44; 16,56</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,05%</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,38%</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>-34,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,76%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,58</t>
+          <t>0,62; 7,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,56</t>
+          <t>-4,24; 0,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,29</t>
+          <t>-1,25; 3,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,01</t>
+          <t>-3,4; 4,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 274,66</t>
+          <t>-6,21; 4,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 21,5</t>
+          <t>-6,01; 4,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 142,36</t>
+          <t>4,22; 268,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 82,15</t>
+          <t>-65,81; 28,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 159,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-47,37; 145,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,77; 75,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-51,89; 76,88</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-3,64</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-10,4%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>126,61%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>129,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-54,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 3,69</t>
+          <t>-4,98; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 3,6</t>
+          <t>-5,04; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,56</t>
+          <t>-1,11; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-10,79; 1,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-82,66; 218,72</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 161,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,31; —</t>
+          <t>-77,37; 227,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-67,9; 239,28</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-69,49; 1234,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-90,3; 89,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,7 +1072,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +1082,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>-33,95%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-6,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,77</t>
+          <t>0,07; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,02</t>
+          <t>-3,33; -0,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,35</t>
+          <t>-0,74; 2,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,63</t>
+          <t>-2,91; 1,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 107,82</t>
+          <t>-1,78; 2,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 3,54</t>
+          <t>-4,45; 0,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 79,82</t>
+          <t>-2,34; 113,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 44,04</t>
+          <t>-57,92; -1,25</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 101,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,84; 36,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,19; 49,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,59; 9,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>24,27%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-40,84%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-11,39%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,39%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-22,51%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.673772788752864</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.705242940157897</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6671504897618357</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.6216661426678254</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.693533767708851</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.968453713045726</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3608840779766054</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4131599153994438</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1439505901324986</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.09682482816102204</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1039265077511523</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.230094275505391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 3,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 0,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 2,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 1,83</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 3,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 1,03</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,06; 101,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-71,68; 15,84</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-49,5; 82,73</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-48,42; 40,47</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-22,45; 66,06</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-47,44; 16,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.064781107028925</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.802780745119827</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.932512018653567</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.164852793876848</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.765056958447506</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.140521806292877</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2145638410390699</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7288955889251761</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.504570603482448</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4813592990682737</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2245095850854379</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.4764089824323092</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.649960619347436</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2972021566950317</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.850355408802008</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.931103202579104</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.672940719343885</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.9136289471512937</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.30509788968912</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1431069311982338</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8572094708069085</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4147606169872245</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.6605611695281312</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1618512579169319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-34,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>36,3%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-6,96%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-9,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 7,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 0,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 3,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 4,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 4,48</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 4,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 268,21</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-65,81; 28,08</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-26,73; 159,56</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-47,37; 145,64</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-52,77; 75,06</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-51,89; 76,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.97455027306682</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.461297545094093</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.041146562519189</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.16193414921813</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.6025734950955222</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.9756828122174072</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7600589671422319</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3298159260285852</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3038667151309524</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2525365152085646</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.06963957493012618</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.1128509688120253</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,65%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>129,1%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-54,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.2263099245033323</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.042601045314488</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.39636783078925</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.110680791142607</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.206128546248066</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-6.153467932017572</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.0569032852246228</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6542288194425957</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.293984420099925</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4611413626680738</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.527731375040414</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5266903975481111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 4,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 4,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 6,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; 1,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-77,37; 227,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-67,9; 239,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-69,49; 1234,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-90,3; 89,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.621634344924268</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7184468504604608</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.255266088727231</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.42754392817148</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.475607333596985</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.270130443710062</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.434296441737252</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.288244755922444</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.517668529188661</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.614437206041692</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.7506436786515637</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.7519341098390416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>42,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-33,95%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29,94%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-6,48%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-19,74%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.007770541522185426</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2656118202188029</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.323099099293648</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.684768751308093</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.001958472267439009</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05269493772681755</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.16150405238252</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.5508429439988348</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 3,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; -0,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 2,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 1,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 2,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 0,67</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 113,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-57,92; -1,25</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 101,47</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-37,84; 36,65</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; 49,35</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-42,59; 9,12</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.454182136733374</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.978447983778953</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.41318140242599</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.99423155389031</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7543950776986534</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6726003357780957</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7131329381874058</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.9070929442539789</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.355961569050281</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.09469644783232</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.312134717866096</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.368888060374925</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.503800805693746</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.582860901637948</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>11.65704164473462</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.8615284666686709</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.997582934857973</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.465324009715245</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.041602149860929</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2542345009113829</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3680683331573453</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.755353416466022</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.467850743415294</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3360174440603364</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.271942035848105</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.04445696171668332</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.05150714416326881</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2046577419186062</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1646975745752279</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.348226391557112</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8101444853526247</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.783138554670603</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.779108116925266</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.527534933664247</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02629824540414913</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5729652034495948</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1745307858723746</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3783101835917233</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2118579767839082</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4273231981498161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.055286750640597</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.06371941051755894</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.699226734508427</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.650449833279819</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.807486372017082</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5840600464431365</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.179779910540895</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.0118879237781571</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9738162925010354</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3694616999385771</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.4935243177094902</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.08309819764699919</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
